--- a/dashboard_loader/health_avoidable_deaths_uploader/health_avoidable_deaths.xlsx
+++ b/dashboard_loader/health_avoidable_deaths_uploader/health_avoidable_deaths.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t xml:space="preserve">Potentially avoidable deaths</t>
   </si>
@@ -110,7 +110,16 @@
     <t xml:space="preserve">Potentially avoidable deaths refer to deaths from certain conditions that are considered avoidable given timely and effective health care. Avoidable mortality measures premature deaths (for those aged 0–74 years) for specific conditions defined and agreed to nationally by NHISSC and endorsed by NHIPPC (August 2014). These include external events in which the health system has no role — for example, while the response of the health system may prevent death following an accidental fall, it is not a factor when an accidental fall causes immediate death.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sourced from ABS Causes of Death, Australia.</t>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABS (unpublished) Causes of Death, Australia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Council of Australian Governments (COAG), 2011, National Healthcare Agreement.</t>
   </si>
 </sst>
 </file>
@@ -122,11 +131,12 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -142,6 +152,87 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -156,14 +247,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,17 +257,74 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -200,7 +342,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -224,70 +366,198 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -298,15 +568,15 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="111.331632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="111.33"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,17 +1065,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.8061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="82.81"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -880,16 +1150,26 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B11" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
